--- a/public/assets/samplefile.xlsx
+++ b/public/assets/samplefile.xlsx
@@ -64,16 +64,16 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Sudhanshu</t>
-  </si>
-  <si>
-    <t>Nuti</t>
-  </si>
-  <si>
-    <t>sdfsdhfsd</t>
-  </si>
-  <si>
-    <t>sfhsd</t>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>tesla</t>
+  </si>
+  <si>
+    <t>Truck</t>
   </si>
 </sst>
 </file>
